--- a/BOMs/LV Powerboard.xlsx
+++ b/BOMs/LV Powerboard.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\Desktop\UIUCClasses\ECE445\SeniorDesign\BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhruv\Documents\College\ECE\445\SeniorDesign\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA4B0E9-B223-4A13-9393-D4ED48ECA62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F94847-8742-4ACB-A22C-F595DDEF4078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A82CAE1C-26C1-49E7-91F8-22B55AE65F9C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{A82CAE1C-26C1-49E7-91F8-22B55AE65F9C}"/>
   </bookViews>
   <sheets>
     <sheet name="LV Powerboard" sheetId="1" r:id="rId1"/>
@@ -356,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +366,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,7 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -407,6 +413,11 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -745,19 +756,19 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="70.85546875" customWidth="1"/>
-    <col min="7" max="9" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.73046875" customWidth="1"/>
+    <col min="2" max="2" width="31.3984375" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" customWidth="1"/>
+    <col min="4" max="4" width="70.86328125" customWidth="1"/>
+    <col min="7" max="9" width="19.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -786,37 +797,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="9">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="10">
         <v>0.45</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="11">
         <f>E2*C2</f>
         <v>2.7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -842,7 +853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -855,7 +866,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7">
-        <f t="shared" ref="F4:F26" si="0">E4*C4</f>
+        <f t="shared" ref="F4:F25" si="0">E4*C4</f>
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -868,7 +879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -894,7 +905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -920,7 +931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -946,7 +957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -972,7 +983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -998,7 +1009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -1050,37 +1061,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="9">
         <v>1</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="10">
         <v>2.7</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="11">
         <f>C12*E12</f>
         <v>2.7</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -1110,7 +1121,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -1140,7 +1151,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -1166,7 +1177,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -1192,7 +1203,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
@@ -1218,7 +1229,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -1244,7 +1255,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -1270,37 +1281,37 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="9">
         <v>1</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="10">
         <v>0.45</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="11">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -1326,67 +1337,67 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="9">
         <v>1</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="10">
         <v>0.97</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="11">
         <f t="shared" si="0"/>
         <v>0.97</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="9">
         <v>4</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="10">
         <v>0.94</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="11">
         <f t="shared" si="0"/>
         <v>3.76</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>70</v>
       </c>
@@ -1412,63 +1423,63 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="9">
         <v>14</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="10">
         <v>0.38</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="11">
         <f t="shared" si="0"/>
         <v>5.32</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="9">
         <v>1</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="10">
         <v>5.67</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="11">
         <f>E26*C26</f>
         <v>5.67</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="8" t="s">
         <v>83</v>
       </c>
     </row>

--- a/BOMs/LV Powerboard.xlsx
+++ b/BOMs/LV Powerboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhruv\Documents\College\ECE\445\SeniorDesign\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F94847-8742-4ACB-A22C-F595DDEF4078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A696223-6314-41F9-BE3B-D6DD8459AAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{A82CAE1C-26C1-49E7-91F8-22B55AE65F9C}"/>
   </bookViews>
@@ -23,17 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -308,12 +297,6 @@
     <t>https://www.digikey.com/en/products/detail/texas-instruments/INA219AID/2047415</t>
   </si>
   <si>
-    <t>https://www.newark.com/samtec/tsw-110-08-f-d-ra/header-2-54mm-though-hole-right/dp/80P1078</t>
-  </si>
-  <si>
-    <t>https://www.coilcraft.com/en-us/products/power/shielded-inductors/molded-inductor/xal/xal7070/xal7070-472/</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/ERJ-3LWFR005V/6004265</t>
   </si>
   <si>
@@ -330,6 +313,12 @@
   </si>
   <si>
     <t>WSL2512R0150FEA</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Coilcraft/XAL7070-472MEC?qs=zCSbvcPd3pZar3i%2F4%252BSjWg%3D%3D&amp;utm_source=octopart&amp;utm_medium=aggregator&amp;utm_campaign=994-XAL7070-472MEC&amp;utm_content=Coilcraft</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Samtec/TSW-110-08-F-D-RA?qs=rU5fayqh%252BE0v9CB6rmNMmg%3D%3D&amp;utm_source=octopart&amp;utm_medium=aggregator&amp;utm_campaign=200-TSW11008FDRA&amp;utm_content=Samtec</t>
   </si>
 </sst>
 </file>
@@ -340,7 +329,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +340,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -400,11 +397,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -418,9 +416,11 @@
     <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -756,7 +756,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1101,8 +1101,8 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>89</v>
+      <c r="D13" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="E13" s="6">
         <v>2.4300000000000002</v>
@@ -1131,8 +1131,8 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>90</v>
+      <c r="D14" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="E14" s="6">
         <v>3.25</v>
@@ -1292,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E20" s="10">
         <v>0.45</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>33</v>
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E22" s="10">
         <v>0.97</v>
@@ -1378,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E23" s="10">
         <v>0.94</v>
@@ -1434,7 +1434,7 @@
         <v>14</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E25" s="10">
         <v>0.38</v>
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E26" s="10">
         <v>5.67</v>
@@ -1484,7 +1484,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D14" r:id="rId1" xr:uid="{5290FC5E-A379-4D99-8C1B-25BBF5AC8613}"/>
+    <hyperlink ref="D13" r:id="rId2" xr:uid="{CBD13701-3493-4E0A-8FC8-02B8C1A7C5E1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/BOMs/LV Powerboard.xlsx
+++ b/BOMs/LV Powerboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhruv\Documents\College\ECE\445\SeniorDesign\BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\Desktop\UIUCClasses\ECE445\SeniorDesign\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A696223-6314-41F9-BE3B-D6DD8459AAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E6F521-CAB6-4233-9BE2-BF9D76E589CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{A82CAE1C-26C1-49E7-91F8-22B55AE65F9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A82CAE1C-26C1-49E7-91F8-22B55AE65F9C}"/>
   </bookViews>
   <sheets>
     <sheet name="LV Powerboard" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -153,9 +164,6 @@
     <t>CMP-108-000000-1</t>
   </si>
   <si>
-    <t>XAL7070-472MEB</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
@@ -315,10 +323,13 @@
     <t>WSL2512R0150FEA</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/Coilcraft/XAL7070-472MEC?qs=zCSbvcPd3pZar3i%2F4%252BSjWg%3D%3D&amp;utm_source=octopart&amp;utm_medium=aggregator&amp;utm_campaign=994-XAL7070-472MEC&amp;utm_content=Coilcraft</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/Samtec/TSW-110-08-F-D-RA?qs=rU5fayqh%252BE0v9CB6rmNMmg%3D%3D&amp;utm_source=octopart&amp;utm_medium=aggregator&amp;utm_campaign=200-TSW11008FDRA&amp;utm_content=Samtec</t>
+  </si>
+  <si>
+    <t>https://www.coilcraft.com/en-us/products/power/shielded-inductors/molded-inductor/xal/xal7070/xal7070-153/</t>
+  </si>
+  <si>
+    <t>XAL7070-153</t>
   </si>
 </sst>
 </file>
@@ -402,7 +413,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -417,6 +428,7 @@
     <xf numFmtId="8" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -756,19 +768,19 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.73046875" customWidth="1"/>
-    <col min="2" max="2" width="31.3984375" customWidth="1"/>
-    <col min="3" max="3" width="8.3984375" customWidth="1"/>
-    <col min="4" max="4" width="70.86328125" customWidth="1"/>
-    <col min="7" max="9" width="19.73046875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="70.85546875" customWidth="1"/>
+    <col min="7" max="9" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -779,13 +791,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
@@ -797,7 +809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -808,7 +820,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="10">
         <v>0.45</v>
@@ -827,7 +839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -853,7 +865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -879,7 +891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -905,7 +917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -931,7 +943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -957,7 +969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -983,7 +995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1009,7 +1021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1035,7 +1047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -1061,7 +1073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>32</v>
       </c>
@@ -1072,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="10">
         <v>2.7</v>
@@ -1091,7 +1103,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -1102,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E13" s="6">
         <v>2.4300000000000002</v>
@@ -1121,9 +1133,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>33</v>
@@ -1142,21 +1154,21 @@
         <v>3.25</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -1168,21 +1180,21 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -1194,21 +1206,21 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -1220,21 +1232,21 @@
         <v>0</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -1246,21 +1258,21 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1272,27 +1284,27 @@
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="B20" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="9">
         <v>1</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>89</v>
+      <c r="D20" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="E20" s="10">
         <v>0.45</v>
@@ -1302,21 +1314,21 @@
         <v>0.45</v>
       </c>
       <c r="G20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -1328,18 +1340,18 @@
         <v>0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>33</v>
@@ -1348,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" s="10">
         <v>0.97</v>
@@ -1358,27 +1370,27 @@
         <v>0.97</v>
       </c>
       <c r="G22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="I22" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I22" s="8" t="s">
+    </row>
+    <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="C23" s="9">
         <v>4</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E23" s="10">
         <v>0.94</v>
@@ -1388,21 +1400,21 @@
         <v>3.76</v>
       </c>
       <c r="G23" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="I23" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I23" s="8" t="s">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -1414,27 +1426,27 @@
         <v>0</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="C25" s="9">
         <v>14</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="10">
         <v>0.38</v>
@@ -1444,18 +1456,18 @@
         <v>5.32</v>
       </c>
       <c r="G25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="I25" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="8" t="s">
+    </row>
+    <row r="26" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>33</v>
@@ -1464,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E26" s="10">
         <v>5.67</v>
@@ -1474,19 +1486,19 @@
         <v>5.67</v>
       </c>
       <c r="G26" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="I26" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1" xr:uid="{5290FC5E-A379-4D99-8C1B-25BBF5AC8613}"/>
-    <hyperlink ref="D13" r:id="rId2" xr:uid="{CBD13701-3493-4E0A-8FC8-02B8C1A7C5E1}"/>
+    <hyperlink ref="D13" r:id="rId1" xr:uid="{CBD13701-3493-4E0A-8FC8-02B8C1A7C5E1}"/>
+    <hyperlink ref="D20" r:id="rId2" xr:uid="{CFBF1D14-DDB2-45A0-8621-FE95E67D455D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
